--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3377,28 +3377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5113.588502271417</v>
+        <v>5583.301872602871</v>
       </c>
       <c r="AB2" t="n">
-        <v>6996.637384411135</v>
+        <v>7639.319939990062</v>
       </c>
       <c r="AC2" t="n">
-        <v>6328.888132284916</v>
+        <v>6910.233966769998</v>
       </c>
       <c r="AD2" t="n">
-        <v>5113588.502271418</v>
+        <v>5583301.872602872</v>
       </c>
       <c r="AE2" t="n">
-        <v>6996637.384411135</v>
+        <v>7639319.939990062</v>
       </c>
       <c r="AF2" t="n">
         <v>1.666331900986496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>95</v>
+        <v>94.18619791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6328888.132284916</v>
+        <v>6910233.966769998</v>
       </c>
     </row>
     <row r="3">
@@ -3483,28 +3483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2493.771724013329</v>
+        <v>2797.147552556567</v>
       </c>
       <c r="AB3" t="n">
-        <v>3412.088490239054</v>
+        <v>3827.180682848896</v>
       </c>
       <c r="AC3" t="n">
-        <v>3086.443553626784</v>
+        <v>3461.919929959477</v>
       </c>
       <c r="AD3" t="n">
-        <v>2493771.724013329</v>
+        <v>2797147.552556567</v>
       </c>
       <c r="AE3" t="n">
-        <v>3412088.490239054</v>
+        <v>3827180.682848896</v>
       </c>
       <c r="AF3" t="n">
         <v>2.635948062121867e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.54427083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3086443.553626784</v>
+        <v>3461919.929959477</v>
       </c>
     </row>
     <row r="4">
@@ -3589,28 +3589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2037.518875686648</v>
+        <v>2301.67329934079</v>
       </c>
       <c r="AB4" t="n">
-        <v>2787.82321470322</v>
+        <v>3149.250950817695</v>
       </c>
       <c r="AC4" t="n">
-        <v>2521.7572798264</v>
+        <v>2848.690860073004</v>
       </c>
       <c r="AD4" t="n">
-        <v>2037518.875686648</v>
+        <v>2301673.29934079</v>
       </c>
       <c r="AE4" t="n">
-        <v>2787823.21470322</v>
+        <v>3149250.950817694</v>
       </c>
       <c r="AF4" t="n">
         <v>3.008654821225617e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.16145833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2521757.2798264</v>
+        <v>2848690.860073004</v>
       </c>
     </row>
     <row r="5">
@@ -3695,28 +3695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1831.072200742908</v>
+        <v>2085.471257515622</v>
       </c>
       <c r="AB5" t="n">
-        <v>2505.353766260692</v>
+        <v>2853.433779031404</v>
       </c>
       <c r="AC5" t="n">
-        <v>2266.246319094866</v>
+        <v>2581.106063980108</v>
       </c>
       <c r="AD5" t="n">
-        <v>1831072.200742908</v>
+        <v>2085471.257515622</v>
       </c>
       <c r="AE5" t="n">
-        <v>2505353.766260692</v>
+        <v>2853433.779031404</v>
       </c>
       <c r="AF5" t="n">
         <v>3.205615637647199e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.95833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2266246.319094866</v>
+        <v>2581106.063980108</v>
       </c>
     </row>
     <row r="6">
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1718.305175498799</v>
+        <v>1953.128200760674</v>
       </c>
       <c r="AB6" t="n">
-        <v>2351.060947391662</v>
+        <v>2672.356170215685</v>
       </c>
       <c r="AC6" t="n">
-        <v>2126.678990307365</v>
+        <v>2417.310248005741</v>
       </c>
       <c r="AD6" t="n">
-        <v>1718305.175498799</v>
+        <v>1953128.200760674</v>
       </c>
       <c r="AE6" t="n">
-        <v>2351060.947391661</v>
+        <v>2672356.170215685</v>
       </c>
       <c r="AF6" t="n">
         <v>3.332181645751642e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>48</v>
+        <v>47.10286458333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2126678.990307365</v>
+        <v>2417310.248005741</v>
       </c>
     </row>
     <row r="7">
@@ -3907,28 +3907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1625.487882515512</v>
+        <v>1860.34406216631</v>
       </c>
       <c r="AB7" t="n">
-        <v>2224.064232321958</v>
+        <v>2545.404818443575</v>
       </c>
       <c r="AC7" t="n">
-        <v>2011.802663482905</v>
+        <v>2302.47495506942</v>
       </c>
       <c r="AD7" t="n">
-        <v>1625487.882515511</v>
+        <v>1860344.06216631</v>
       </c>
       <c r="AE7" t="n">
-        <v>2224064.232321958</v>
+        <v>2545404.818443575</v>
       </c>
       <c r="AF7" t="n">
         <v>3.418969765594688e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.90494791666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2011802.663482905</v>
+        <v>2302474.95506942</v>
       </c>
     </row>
     <row r="8">
@@ -4013,28 +4013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1563.239279183378</v>
+        <v>1788.273783174905</v>
       </c>
       <c r="AB8" t="n">
-        <v>2138.892947028372</v>
+        <v>2446.795083211225</v>
       </c>
       <c r="AC8" t="n">
-        <v>1934.760006119089</v>
+        <v>2213.276394568013</v>
       </c>
       <c r="AD8" t="n">
-        <v>1563239.279183378</v>
+        <v>1788273.783174905</v>
       </c>
       <c r="AE8" t="n">
-        <v>2138892.947028372</v>
+        <v>2446795.083211225</v>
       </c>
       <c r="AF8" t="n">
         <v>3.486471636583724e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>45.01953125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1934760.006119089</v>
+        <v>2213276.394568013</v>
       </c>
     </row>
     <row r="9">
@@ -4119,28 +4119,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1508.719631243899</v>
+        <v>1733.719969816645</v>
       </c>
       <c r="AB9" t="n">
-        <v>2064.296759480463</v>
+        <v>2372.152149030068</v>
       </c>
       <c r="AC9" t="n">
-        <v>1867.283174014346</v>
+        <v>2145.757277263089</v>
       </c>
       <c r="AD9" t="n">
-        <v>1508719.631243899</v>
+        <v>1733719.969816645</v>
       </c>
       <c r="AE9" t="n">
-        <v>2064296.759480463</v>
+        <v>2372152.149030068</v>
       </c>
       <c r="AF9" t="n">
         <v>3.527695993509171e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.4921875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1867283.174014346</v>
+        <v>2145757.277263089</v>
       </c>
     </row>
     <row r="10">
@@ -4225,28 +4225,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1464.620568501704</v>
+        <v>1679.900716641663</v>
       </c>
       <c r="AB10" t="n">
-        <v>2003.958476323251</v>
+        <v>2298.514272498181</v>
       </c>
       <c r="AC10" t="n">
-        <v>1812.703491916346</v>
+        <v>2079.147296315996</v>
       </c>
       <c r="AD10" t="n">
-        <v>1464620.568501704</v>
+        <v>1679900.716641663</v>
       </c>
       <c r="AE10" t="n">
-        <v>2003958.476323251</v>
+        <v>2298514.272498181</v>
       </c>
       <c r="AF10" t="n">
         <v>3.562652319557065e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.05598958333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1812703.491916346</v>
+        <v>2079147.296315996</v>
       </c>
     </row>
     <row r="11">
@@ -4331,28 +4331,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1450.387268010542</v>
+        <v>1675.454926390993</v>
       </c>
       <c r="AB11" t="n">
-        <v>1984.483846662343</v>
+        <v>2292.431346142789</v>
       </c>
       <c r="AC11" t="n">
-        <v>1795.08749357746</v>
+        <v>2073.644915914522</v>
       </c>
       <c r="AD11" t="n">
-        <v>1450387.268010542</v>
+        <v>1675454.926390992</v>
       </c>
       <c r="AE11" t="n">
-        <v>1984483.846662343</v>
+        <v>2292431.346142789</v>
       </c>
       <c r="AF11" t="n">
         <v>3.568438194213268e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>43.984375</v>
       </c>
       <c r="AH11" t="n">
-        <v>1795087.49357746</v>
+        <v>2073644.915914522</v>
       </c>
     </row>
     <row r="12">
@@ -4437,28 +4437,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1454.762305636998</v>
+        <v>1679.829964017449</v>
       </c>
       <c r="AB12" t="n">
-        <v>1990.469966155898</v>
+        <v>2298.417465636344</v>
       </c>
       <c r="AC12" t="n">
-        <v>1800.502306228122</v>
+        <v>2079.059728565184</v>
       </c>
       <c r="AD12" t="n">
-        <v>1454762.305636998</v>
+        <v>1679829.964017449</v>
       </c>
       <c r="AE12" t="n">
-        <v>1990469.966155898</v>
+        <v>2298417.465636344</v>
       </c>
       <c r="AF12" t="n">
         <v>3.568438194213268e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>43.984375</v>
       </c>
       <c r="AH12" t="n">
-        <v>1800502.306228122</v>
+        <v>2079059.728565184</v>
       </c>
     </row>
   </sheetData>
@@ -4734,28 +4734,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3617.289479844092</v>
+        <v>4014.022178934478</v>
       </c>
       <c r="AB2" t="n">
-        <v>4949.335049871978</v>
+        <v>5492.162231378887</v>
       </c>
       <c r="AC2" t="n">
-        <v>4476.97745914738</v>
+        <v>4967.997976313983</v>
       </c>
       <c r="AD2" t="n">
-        <v>3617289.479844092</v>
+        <v>4014022.178934478</v>
       </c>
       <c r="AE2" t="n">
-        <v>4949335.049871978</v>
+        <v>5492162.231378887</v>
       </c>
       <c r="AF2" t="n">
         <v>2.16803934222839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>80</v>
+        <v>79.20572916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>4476977.45914738</v>
+        <v>4967997.976313983</v>
       </c>
     </row>
     <row r="3">
@@ -4840,28 +4840,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2047.699539211886</v>
+        <v>2318.65343018843</v>
       </c>
       <c r="AB3" t="n">
-        <v>2801.752847677627</v>
+        <v>3172.483914953942</v>
       </c>
       <c r="AC3" t="n">
-        <v>2534.357488180092</v>
+        <v>2869.706502719757</v>
       </c>
       <c r="AD3" t="n">
-        <v>2047699.539211886</v>
+        <v>2318653.43018843</v>
       </c>
       <c r="AE3" t="n">
-        <v>2801752.847677627</v>
+        <v>3172483.914953941</v>
       </c>
       <c r="AF3" t="n">
         <v>3.117661149263577e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.08463541666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2534357.488180093</v>
+        <v>2869706.502719757</v>
       </c>
     </row>
     <row r="4">
@@ -4946,28 +4946,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1716.46499496635</v>
+        <v>1958.377238492568</v>
       </c>
       <c r="AB4" t="n">
-        <v>2348.54313120413</v>
+        <v>2679.538135211664</v>
       </c>
       <c r="AC4" t="n">
-        <v>2124.401470962994</v>
+        <v>2423.806776342454</v>
       </c>
       <c r="AD4" t="n">
-        <v>1716464.99496635</v>
+        <v>1958377.238492568</v>
       </c>
       <c r="AE4" t="n">
-        <v>2348543.13120413</v>
+        <v>2679538.135211664</v>
       </c>
       <c r="AF4" t="n">
         <v>3.47297797539591e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2124401.470962994</v>
+        <v>2423806.776342454</v>
       </c>
     </row>
     <row r="5">
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1556.715262830765</v>
+        <v>1798.626495327125</v>
       </c>
       <c r="AB5" t="n">
-        <v>2129.966500035439</v>
+        <v>2460.960120707319</v>
       </c>
       <c r="AC5" t="n">
-        <v>1926.685486698814</v>
+        <v>2226.089540766234</v>
       </c>
       <c r="AD5" t="n">
-        <v>1556715.262830765</v>
+        <v>1798626.495327125</v>
       </c>
       <c r="AE5" t="n">
-        <v>2129966.500035439</v>
+        <v>2460960.120707319</v>
       </c>
       <c r="AF5" t="n">
         <v>3.659209363108921e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.93359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1926685.486698814</v>
+        <v>2226089.540766234</v>
       </c>
     </row>
     <row r="6">
@@ -5158,28 +5158,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1460.517944469716</v>
+        <v>1683.069089695717</v>
       </c>
       <c r="AB6" t="n">
-        <v>1998.345085127687</v>
+        <v>2302.849380289491</v>
       </c>
       <c r="AC6" t="n">
-        <v>1807.625834898042</v>
+        <v>2083.068667504066</v>
       </c>
       <c r="AD6" t="n">
-        <v>1460517.944469716</v>
+        <v>1683069.089695717</v>
       </c>
       <c r="AE6" t="n">
-        <v>1998345.085127687</v>
+        <v>2302849.380289491</v>
       </c>
       <c r="AF6" t="n">
         <v>3.777384521317745e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.46223958333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1807625.834898042</v>
+        <v>2083068.667504066</v>
       </c>
     </row>
     <row r="7">
@@ -5264,28 +5264,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1375.356209193688</v>
+        <v>1597.873189000908</v>
       </c>
       <c r="AB7" t="n">
-        <v>1881.823041852426</v>
+        <v>2186.280590380982</v>
       </c>
       <c r="AC7" t="n">
-        <v>1702.224491893257</v>
+        <v>1977.625039299101</v>
       </c>
       <c r="AD7" t="n">
-        <v>1375356.209193688</v>
+        <v>1597873.189000908</v>
       </c>
       <c r="AE7" t="n">
-        <v>1881823.041852426</v>
+        <v>2186280.590380982</v>
       </c>
       <c r="AF7" t="n">
         <v>3.8694450798331e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.38151041666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1702224.491893257</v>
+        <v>1977625.039299101</v>
       </c>
     </row>
     <row r="8">
@@ -5370,28 +5370,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1354.900471655742</v>
+        <v>1567.805233150416</v>
       </c>
       <c r="AB8" t="n">
-        <v>1853.83459930956</v>
+        <v>2145.140286681747</v>
       </c>
       <c r="AC8" t="n">
-        <v>1676.907227024656</v>
+        <v>1940.411108444142</v>
       </c>
       <c r="AD8" t="n">
-        <v>1354900.471655742</v>
+        <v>1567805.233150416</v>
       </c>
       <c r="AE8" t="n">
-        <v>1853834.599309559</v>
+        <v>2145140.286681747</v>
       </c>
       <c r="AF8" t="n">
         <v>3.886327245291504e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.18619791666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1676907.227024656</v>
+        <v>1940411.108444142</v>
       </c>
     </row>
     <row r="9">
@@ -5476,28 +5476,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1359.49697649354</v>
+        <v>1572.401737988214</v>
       </c>
       <c r="AB9" t="n">
-        <v>1860.123740012116</v>
+        <v>2151.429427384303</v>
       </c>
       <c r="AC9" t="n">
-        <v>1682.596140965425</v>
+        <v>1946.10002238491</v>
       </c>
       <c r="AD9" t="n">
-        <v>1359496.97649354</v>
+        <v>1572401.737988214</v>
       </c>
       <c r="AE9" t="n">
-        <v>1860123.740012116</v>
+        <v>2151429.427384303</v>
       </c>
       <c r="AF9" t="n">
         <v>3.885272109950353e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.19921875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1682596.140965425</v>
+        <v>1946100.02238491</v>
       </c>
     </row>
   </sheetData>
@@ -5773,28 +5773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1562.536414801532</v>
+        <v>1824.388418287389</v>
       </c>
       <c r="AB2" t="n">
-        <v>2137.931256972943</v>
+        <v>2496.20872023738</v>
       </c>
       <c r="AC2" t="n">
-        <v>1933.890098412809</v>
+        <v>2257.974063428867</v>
       </c>
       <c r="AD2" t="n">
-        <v>1562536.414801532</v>
+        <v>1824388.418287389</v>
       </c>
       <c r="AE2" t="n">
-        <v>2137931.256972943</v>
+        <v>2496208.72023738</v>
       </c>
       <c r="AF2" t="n">
         <v>4.340901688970887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.22135416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1933890.098412809</v>
+        <v>2257974.063428867</v>
       </c>
     </row>
     <row r="3">
@@ -5879,28 +5879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1139.905859190319</v>
+        <v>1364.301770298489</v>
       </c>
       <c r="AB3" t="n">
-        <v>1559.669485641475</v>
+        <v>1866.69787086859</v>
       </c>
       <c r="AC3" t="n">
-        <v>1410.816818941724</v>
+        <v>1688.542845999808</v>
       </c>
       <c r="AD3" t="n">
-        <v>1139905.859190319</v>
+        <v>1364301.770298489</v>
       </c>
       <c r="AE3" t="n">
-        <v>1559669.485641475</v>
+        <v>1866697.87086859</v>
       </c>
       <c r="AF3" t="n">
         <v>5.165268006325069e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.40625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1410816.818941724</v>
+        <v>1688542.845999808</v>
       </c>
     </row>
     <row r="4">
@@ -5985,28 +5985,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1139.023584237515</v>
+        <v>1363.419495345685</v>
       </c>
       <c r="AB4" t="n">
-        <v>1558.462318127825</v>
+        <v>1865.49070335494</v>
       </c>
       <c r="AC4" t="n">
-        <v>1409.724861801306</v>
+        <v>1687.45088885939</v>
       </c>
       <c r="AD4" t="n">
-        <v>1139023.584237515</v>
+        <v>1363419.495345685</v>
       </c>
       <c r="AE4" t="n">
-        <v>1558462.318127825</v>
+        <v>1865490.70335494</v>
       </c>
       <c r="AF4" t="n">
         <v>5.177418112833639e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.29557291666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1409724.861801306</v>
+        <v>1687450.88885939</v>
       </c>
     </row>
   </sheetData>
@@ -6282,28 +6282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2126.515252233414</v>
+        <v>2429.821845699475</v>
       </c>
       <c r="AB2" t="n">
-        <v>2909.591983337539</v>
+        <v>3324.589445460518</v>
       </c>
       <c r="AC2" t="n">
-        <v>2631.904608085799</v>
+        <v>3007.295294876233</v>
       </c>
       <c r="AD2" t="n">
-        <v>2126515.252233414</v>
+        <v>2429821.845699475</v>
       </c>
       <c r="AE2" t="n">
-        <v>2909591.983337539</v>
+        <v>3324589.445460518</v>
       </c>
       <c r="AF2" t="n">
         <v>3.334512019437139e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.25260416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2631904.608085799</v>
+        <v>3007295.294876233</v>
       </c>
     </row>
     <row r="3">
@@ -6388,28 +6388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1438.858570669116</v>
+        <v>1675.821338654602</v>
       </c>
       <c r="AB3" t="n">
-        <v>1968.709774349572</v>
+        <v>2292.932687566828</v>
       </c>
       <c r="AC3" t="n">
-        <v>1780.818876587171</v>
+        <v>2074.098410016688</v>
       </c>
       <c r="AD3" t="n">
-        <v>1438858.570669116</v>
+        <v>1675821.338654602</v>
       </c>
       <c r="AE3" t="n">
-        <v>1968709.774349572</v>
+        <v>2292932.687566828</v>
       </c>
       <c r="AF3" t="n">
         <v>4.232387889272191e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.04296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1780818.87658717</v>
+        <v>2074098.410016689</v>
       </c>
     </row>
     <row r="4">
@@ -6494,28 +6494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1237.473616530836</v>
+        <v>1464.986968776767</v>
       </c>
       <c r="AB4" t="n">
-        <v>1693.165995620436</v>
+        <v>2004.459801344032</v>
       </c>
       <c r="AC4" t="n">
-        <v>1531.572609371821</v>
+        <v>1813.156971180758</v>
       </c>
       <c r="AD4" t="n">
-        <v>1237473.616530836</v>
+        <v>1464986.968776767</v>
       </c>
       <c r="AE4" t="n">
-        <v>1693165.995620436</v>
+        <v>2004459.801344032</v>
       </c>
       <c r="AF4" t="n">
         <v>4.55155470237762e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.60546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1531572.609371821</v>
+        <v>1813156.971180758</v>
       </c>
     </row>
     <row r="5">
@@ -6600,28 +6600,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1212.123813256462</v>
+        <v>1430.121440984991</v>
       </c>
       <c r="AB5" t="n">
-        <v>1658.481276426048</v>
+        <v>1956.755248060796</v>
       </c>
       <c r="AC5" t="n">
-        <v>1500.198151097035</v>
+        <v>1770.005273509112</v>
       </c>
       <c r="AD5" t="n">
-        <v>1212123.813256462</v>
+        <v>1430121.440984991</v>
       </c>
       <c r="AE5" t="n">
-        <v>1658481.276426048</v>
+        <v>1956755.248060796</v>
       </c>
       <c r="AF5" t="n">
         <v>4.599381897148663e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.13020833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1500198.151097036</v>
+        <v>1770005.273509112</v>
       </c>
     </row>
   </sheetData>
@@ -6897,28 +6897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1201.158435952491</v>
+        <v>1441.656593504317</v>
       </c>
       <c r="AB2" t="n">
-        <v>1643.477963440449</v>
+        <v>1972.53815263275</v>
       </c>
       <c r="AC2" t="n">
-        <v>1486.626733245501</v>
+        <v>1784.281879820165</v>
       </c>
       <c r="AD2" t="n">
-        <v>1201158.435952491</v>
+        <v>1441656.593504317</v>
       </c>
       <c r="AE2" t="n">
-        <v>1643477.963440449</v>
+        <v>1972538.15263275</v>
       </c>
       <c r="AF2" t="n">
         <v>5.429461499380768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.56640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1486626.733245501</v>
+        <v>1784281.879820165</v>
       </c>
     </row>
     <row r="3">
@@ -7003,28 +7003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1087.202280145628</v>
+        <v>1318.415029087495</v>
       </c>
       <c r="AB3" t="n">
-        <v>1487.55812367472</v>
+        <v>1803.91360716356</v>
       </c>
       <c r="AC3" t="n">
-        <v>1345.587664152144</v>
+        <v>1631.750624304518</v>
       </c>
       <c r="AD3" t="n">
-        <v>1087202.280145628</v>
+        <v>1318415.029087496</v>
       </c>
       <c r="AE3" t="n">
-        <v>1487558.123674721</v>
+        <v>1803913.60716356</v>
       </c>
       <c r="AF3" t="n">
         <v>5.728450874375794e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.9296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1345587.664152144</v>
+        <v>1631750.624304518</v>
       </c>
     </row>
   </sheetData>
@@ -7300,28 +7300,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3940.675645446939</v>
+        <v>4358.057083240148</v>
       </c>
       <c r="AB2" t="n">
-        <v>5391.806268440545</v>
+        <v>5962.885965198717</v>
       </c>
       <c r="AC2" t="n">
-        <v>4877.219845628002</v>
+        <v>5393.796497642941</v>
       </c>
       <c r="AD2" t="n">
-        <v>3940675.645446938</v>
+        <v>4358057.083240148</v>
       </c>
       <c r="AE2" t="n">
-        <v>5391806.268440545</v>
+        <v>5962885.965198717</v>
       </c>
       <c r="AF2" t="n">
         <v>2.027630298747296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83</v>
+        <v>82.65625</v>
       </c>
       <c r="AH2" t="n">
-        <v>4877219.845628002</v>
+        <v>5393796.497642941</v>
       </c>
     </row>
     <row r="3">
@@ -7406,28 +7406,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2154.171126590568</v>
+        <v>2435.594408211281</v>
       </c>
       <c r="AB3" t="n">
-        <v>2947.431970724063</v>
+        <v>3332.487720156655</v>
       </c>
       <c r="AC3" t="n">
-        <v>2666.13320018491</v>
+        <v>3014.439769320669</v>
       </c>
       <c r="AD3" t="n">
-        <v>2154171.126590568</v>
+        <v>2435594.408211281</v>
       </c>
       <c r="AE3" t="n">
-        <v>2947431.970724063</v>
+        <v>3332487.720156655</v>
       </c>
       <c r="AF3" t="n">
         <v>2.984686214799402e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.15234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2666133.20018491</v>
+        <v>3014439.769320669</v>
       </c>
     </row>
     <row r="4">
@@ -7512,28 +7512,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1796.844863304706</v>
+        <v>2039.50076096767</v>
       </c>
       <c r="AB4" t="n">
-        <v>2458.522413174187</v>
+        <v>2790.534917579323</v>
       </c>
       <c r="AC4" t="n">
-        <v>2223.88448461872</v>
+        <v>2524.210181585907</v>
       </c>
       <c r="AD4" t="n">
-        <v>1796844.863304706</v>
+        <v>2039500.76096767</v>
       </c>
       <c r="AE4" t="n">
-        <v>2458522.413174186</v>
+        <v>2790534.917579323</v>
       </c>
       <c r="AF4" t="n">
         <v>3.345577122358588e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.09114583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2223884.48461872</v>
+        <v>2524210.181585907</v>
       </c>
     </row>
     <row r="5">
@@ -7618,28 +7618,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1625.917077735597</v>
+        <v>1858.829881280954</v>
       </c>
       <c r="AB5" t="n">
-        <v>2224.651476156835</v>
+        <v>2543.333049355284</v>
       </c>
       <c r="AC5" t="n">
-        <v>2012.333861590383</v>
+        <v>2300.60091271517</v>
       </c>
       <c r="AD5" t="n">
-        <v>1625917.077735597</v>
+        <v>1858829.881280954</v>
       </c>
       <c r="AE5" t="n">
-        <v>2224651.476156835</v>
+        <v>2543333.049355284</v>
       </c>
       <c r="AF5" t="n">
         <v>3.53966538505447e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.34375</v>
       </c>
       <c r="AH5" t="n">
-        <v>2012333.861590383</v>
+        <v>2300600.91271517</v>
       </c>
     </row>
     <row r="6">
@@ -7724,28 +7724,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1522.325158078662</v>
+        <v>1755.271116012942</v>
       </c>
       <c r="AB6" t="n">
-        <v>2082.912441529267</v>
+        <v>2401.63937802531</v>
       </c>
       <c r="AC6" t="n">
-        <v>1884.122201495685</v>
+        <v>2172.430286508612</v>
       </c>
       <c r="AD6" t="n">
-        <v>1522325.158078662</v>
+        <v>1755271.116012942</v>
       </c>
       <c r="AE6" t="n">
-        <v>2082912.441529267</v>
+        <v>2401639.37802531</v>
       </c>
       <c r="AF6" t="n">
         <v>3.652154205741606e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.88541666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1884122.201495685</v>
+        <v>2172430.286508611</v>
       </c>
     </row>
     <row r="7">
@@ -7830,28 +7830,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1440.16054572413</v>
+        <v>1663.431740378365</v>
       </c>
       <c r="AB7" t="n">
-        <v>1970.491194058928</v>
+        <v>2275.98069261478</v>
       </c>
       <c r="AC7" t="n">
-        <v>1782.430280099704</v>
+        <v>2058.764289670589</v>
       </c>
       <c r="AD7" t="n">
-        <v>1440160.54572413</v>
+        <v>1663431.740378364</v>
       </c>
       <c r="AE7" t="n">
-        <v>1970491.194058928</v>
+        <v>2275980.69261478</v>
       </c>
       <c r="AF7" t="n">
         <v>3.738901877530083e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.82421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1782430.280099704</v>
+        <v>2058764.289670589</v>
       </c>
     </row>
     <row r="8">
@@ -7936,28 +7936,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1388.947805666129</v>
+        <v>1612.117515093878</v>
       </c>
       <c r="AB8" t="n">
-        <v>1900.419663764936</v>
+        <v>2205.770305756699</v>
       </c>
       <c r="AC8" t="n">
-        <v>1719.04627831096</v>
+        <v>1995.254683593347</v>
       </c>
       <c r="AD8" t="n">
-        <v>1388947.805666129</v>
+        <v>1612117.515093878</v>
       </c>
       <c r="AE8" t="n">
-        <v>1900419.663764936</v>
+        <v>2205770.305756699</v>
       </c>
       <c r="AF8" t="n">
         <v>3.786523002992601e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.2578125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1719046.27831096</v>
+        <v>1995254.683593347</v>
       </c>
     </row>
     <row r="9">
@@ -8042,28 +8042,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1383.807764750062</v>
+        <v>1597.336876316547</v>
       </c>
       <c r="AB9" t="n">
-        <v>1893.386833020973</v>
+        <v>2185.546783705792</v>
       </c>
       <c r="AC9" t="n">
-        <v>1712.684651062561</v>
+        <v>1976.961266103087</v>
       </c>
       <c r="AD9" t="n">
-        <v>1383807.764750062</v>
+        <v>1597336.876316547</v>
       </c>
       <c r="AE9" t="n">
-        <v>1893386.833020973</v>
+        <v>2185546.783705792</v>
       </c>
       <c r="AF9" t="n">
         <v>3.794760170640171e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.16015625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1712684.651062561</v>
+        <v>1976961.266103087</v>
       </c>
     </row>
   </sheetData>
@@ -8339,28 +8339,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1071.479632511561</v>
+        <v>1301.116106363288</v>
       </c>
       <c r="AB2" t="n">
-        <v>1466.04570354753</v>
+        <v>1780.24445791769</v>
       </c>
       <c r="AC2" t="n">
-        <v>1326.128359209021</v>
+        <v>1610.340425442815</v>
       </c>
       <c r="AD2" t="n">
-        <v>1071479.632511561</v>
+        <v>1301116.106363288</v>
       </c>
       <c r="AE2" t="n">
-        <v>1466045.70354753</v>
+        <v>1780244.457917691</v>
       </c>
       <c r="AF2" t="n">
         <v>6.076027589016703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.44010416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1326128.359209022</v>
+        <v>1610340.425442815</v>
       </c>
     </row>
     <row r="3">
@@ -8445,28 +8445,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1074.969427774005</v>
+        <v>1304.605901625732</v>
       </c>
       <c r="AB3" t="n">
-        <v>1470.820595384508</v>
+        <v>1785.019349754668</v>
       </c>
       <c r="AC3" t="n">
-        <v>1330.44754207068</v>
+        <v>1614.659608304474</v>
       </c>
       <c r="AD3" t="n">
-        <v>1074969.427774005</v>
+        <v>1304605.901625732</v>
       </c>
       <c r="AE3" t="n">
-        <v>1470820.595384508</v>
+        <v>1785019.349754668</v>
       </c>
       <c r="AF3" t="n">
         <v>6.088947453270385e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.3359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1330447.54207068</v>
+        <v>1614659.608304474</v>
       </c>
     </row>
   </sheetData>
@@ -8742,28 +8742,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2794.496331301949</v>
+        <v>3139.544656866034</v>
       </c>
       <c r="AB2" t="n">
-        <v>3823.553164964701</v>
+        <v>4295.663506459284</v>
       </c>
       <c r="AC2" t="n">
-        <v>3458.638617290896</v>
+        <v>3885.691410404245</v>
       </c>
       <c r="AD2" t="n">
-        <v>2794496.331301949</v>
+        <v>3139544.656866034</v>
       </c>
       <c r="AE2" t="n">
-        <v>3823553.164964701</v>
+        <v>4295663.506459284</v>
       </c>
       <c r="AF2" t="n">
         <v>2.662630465390273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>71</v>
+        <v>70.13020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3458638.617290896</v>
+        <v>3885691.410404245</v>
       </c>
     </row>
     <row r="3">
@@ -8848,28 +8848,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1739.788131339265</v>
+        <v>1989.02034990498</v>
       </c>
       <c r="AB3" t="n">
-        <v>2380.454875333709</v>
+        <v>2721.465392124791</v>
       </c>
       <c r="AC3" t="n">
-        <v>2153.26760302126</v>
+        <v>2461.732554701067</v>
       </c>
       <c r="AD3" t="n">
-        <v>1739788.131339265</v>
+        <v>1989020.34990498</v>
       </c>
       <c r="AE3" t="n">
-        <v>2380454.87533371</v>
+        <v>2721465.392124791</v>
       </c>
       <c r="AF3" t="n">
         <v>3.589373870935461e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.02473958333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2153267.60302126</v>
+        <v>2461732.554701068</v>
       </c>
     </row>
     <row r="4">
@@ -8954,28 +8954,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1482.927977273336</v>
+        <v>1722.570741025601</v>
       </c>
       <c r="AB4" t="n">
-        <v>2029.007480670472</v>
+        <v>2356.897282328901</v>
       </c>
       <c r="AC4" t="n">
-        <v>1835.361854445166</v>
+        <v>2131.958313629541</v>
       </c>
       <c r="AD4" t="n">
-        <v>1482927.977273336</v>
+        <v>1722570.741025601</v>
       </c>
       <c r="AE4" t="n">
-        <v>2029007.480670471</v>
+        <v>2356897.282328901</v>
       </c>
       <c r="AF4" t="n">
         <v>3.928692177577354e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.53255208333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1835361.854445165</v>
+        <v>2131958.313629542</v>
       </c>
     </row>
     <row r="5">
@@ -9060,28 +9060,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1350.608812235706</v>
+        <v>1571.041534031861</v>
       </c>
       <c r="AB5" t="n">
-        <v>1847.962561556415</v>
+        <v>2149.568336323257</v>
       </c>
       <c r="AC5" t="n">
-        <v>1671.595608313215</v>
+        <v>1944.416551242673</v>
       </c>
       <c r="AD5" t="n">
-        <v>1350608.812235706</v>
+        <v>1571041.534031861</v>
       </c>
       <c r="AE5" t="n">
-        <v>1847962.561556415</v>
+        <v>2149568.336323257</v>
       </c>
       <c r="AF5" t="n">
         <v>4.107960091061026e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.45572916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1671595.608313215</v>
+        <v>1944416.551242673</v>
       </c>
     </row>
     <row r="6">
@@ -9166,28 +9166,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1281.295443721104</v>
+        <v>1501.795485324963</v>
       </c>
       <c r="AB6" t="n">
-        <v>1753.124952864733</v>
+        <v>2054.822837562417</v>
       </c>
       <c r="AC6" t="n">
-        <v>1585.809167889647</v>
+        <v>1858.713429907424</v>
       </c>
       <c r="AD6" t="n">
-        <v>1281295.443721104</v>
+        <v>1501795.485324963</v>
       </c>
       <c r="AE6" t="n">
-        <v>1753124.952864733</v>
+        <v>2054822.837562417</v>
       </c>
       <c r="AF6" t="n">
         <v>4.187411630316988e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.59635416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1585809.167889647</v>
+        <v>1858713.429907424</v>
       </c>
     </row>
     <row r="7">
@@ -9272,28 +9272,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1284.561935181248</v>
+        <v>1505.061976785108</v>
       </c>
       <c r="AB7" t="n">
-        <v>1757.594310587935</v>
+        <v>2059.292195285619</v>
       </c>
       <c r="AC7" t="n">
-        <v>1589.851976384529</v>
+        <v>1862.756238402307</v>
       </c>
       <c r="AD7" t="n">
-        <v>1284561.935181248</v>
+        <v>1505061.976785108</v>
       </c>
       <c r="AE7" t="n">
-        <v>1757594.310587935</v>
+        <v>2059292.195285619</v>
       </c>
       <c r="AF7" t="n">
         <v>4.189419430948006e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.57682291666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1589851.976384529</v>
+        <v>1862756.238402307</v>
       </c>
     </row>
   </sheetData>
@@ -9569,28 +9569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3325.092669975198</v>
+        <v>3701.3495462337</v>
       </c>
       <c r="AB2" t="n">
-        <v>4549.538483795872</v>
+        <v>5064.349741174646</v>
       </c>
       <c r="AC2" t="n">
-        <v>4115.336916219588</v>
+        <v>4581.01530973625</v>
       </c>
       <c r="AD2" t="n">
-        <v>3325092.669975198</v>
+        <v>3701349.546233701</v>
       </c>
       <c r="AE2" t="n">
-        <v>4549538.483795872</v>
+        <v>5064349.741174646</v>
       </c>
       <c r="AF2" t="n">
         <v>2.317543174496338e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.0546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>4115336.916219588</v>
+        <v>4581015.30973625</v>
       </c>
     </row>
     <row r="3">
@@ -9675,28 +9675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1930.49507349758</v>
+        <v>2200.657274796059</v>
       </c>
       <c r="AB3" t="n">
-        <v>2641.388526991216</v>
+        <v>3011.036369523108</v>
       </c>
       <c r="AC3" t="n">
-        <v>2389.298113187254</v>
+        <v>2723.667284431795</v>
       </c>
       <c r="AD3" t="n">
-        <v>1930495.07349758</v>
+        <v>2200657.274796059</v>
       </c>
       <c r="AE3" t="n">
-        <v>2641388.526991216</v>
+        <v>3011036.369523108</v>
       </c>
       <c r="AF3" t="n">
         <v>3.264866021174221e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2389298.113187254</v>
+        <v>2723667.284431796</v>
       </c>
     </row>
     <row r="4">
@@ -9781,28 +9781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1636.499178134756</v>
+        <v>1877.742273551723</v>
       </c>
       <c r="AB4" t="n">
-        <v>2239.130372772286</v>
+        <v>2569.209818816013</v>
       </c>
       <c r="AC4" t="n">
-        <v>2025.430912634114</v>
+        <v>2324.00803961684</v>
       </c>
       <c r="AD4" t="n">
-        <v>1636499.178134756</v>
+        <v>1877742.273551723</v>
       </c>
       <c r="AE4" t="n">
-        <v>2239130.372772286</v>
+        <v>2569209.818816013</v>
       </c>
       <c r="AF4" t="n">
         <v>3.609790087098092e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.828125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2025430.912634114</v>
+        <v>2324008.03961684</v>
       </c>
     </row>
     <row r="5">
@@ -9887,28 +9887,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1491.414799020804</v>
+        <v>1722.905318777857</v>
       </c>
       <c r="AB5" t="n">
-        <v>2040.619524597508</v>
+        <v>2357.355066370066</v>
       </c>
       <c r="AC5" t="n">
-        <v>1845.865661197411</v>
+        <v>2132.372407404322</v>
       </c>
       <c r="AD5" t="n">
-        <v>1491414.799020804</v>
+        <v>1722905.318777857</v>
       </c>
       <c r="AE5" t="n">
-        <v>2040619.524597507</v>
+        <v>2357355.066370066</v>
       </c>
       <c r="AF5" t="n">
         <v>3.798496581563507e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>46.40625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1845865.661197411</v>
+        <v>2132372.407404322</v>
       </c>
     </row>
     <row r="6">
@@ -9993,28 +9993,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1395.472455962239</v>
+        <v>1617.346050704643</v>
       </c>
       <c r="AB6" t="n">
-        <v>1909.346978147331</v>
+        <v>2212.924218846058</v>
       </c>
       <c r="AC6" t="n">
-        <v>1727.121582338264</v>
+        <v>2001.725837258038</v>
       </c>
       <c r="AD6" t="n">
-        <v>1395472.455962239</v>
+        <v>1617346.050704643</v>
       </c>
       <c r="AE6" t="n">
-        <v>1909346.978147331</v>
+        <v>2212924.218846058</v>
       </c>
       <c r="AF6" t="n">
         <v>3.915727445413614e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>46</v>
+        <v>45.01302083333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1727121.582338264</v>
+        <v>2001725.837258038</v>
       </c>
     </row>
     <row r="7">
@@ -10099,28 +10099,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1330.911235956662</v>
+        <v>1552.750665280285</v>
       </c>
       <c r="AB7" t="n">
-        <v>1821.011468695693</v>
+        <v>2124.541962761173</v>
       </c>
       <c r="AC7" t="n">
-        <v>1647.216689929024</v>
+        <v>1921.778659648618</v>
       </c>
       <c r="AD7" t="n">
-        <v>1330911.235956662</v>
+        <v>1552750.665280285</v>
       </c>
       <c r="AE7" t="n">
-        <v>1821011.468695693</v>
+        <v>2124541.962761173</v>
       </c>
       <c r="AF7" t="n">
         <v>3.981246773477646e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.27734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1647216.689929024</v>
+        <v>1921778.659648618</v>
       </c>
     </row>
     <row r="8">
@@ -10205,28 +10205,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1332.530433864334</v>
+        <v>1554.369863187957</v>
       </c>
       <c r="AB8" t="n">
-        <v>1823.226926706939</v>
+        <v>2126.757420772419</v>
       </c>
       <c r="AC8" t="n">
-        <v>1649.220707737092</v>
+        <v>1923.782677456686</v>
       </c>
       <c r="AD8" t="n">
-        <v>1332530.433864334</v>
+        <v>1554369.863187957</v>
       </c>
       <c r="AE8" t="n">
-        <v>1823226.926706939</v>
+        <v>2126757.420772419</v>
       </c>
       <c r="AF8" t="n">
         <v>3.979080845277182e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.296875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1649220.707737091</v>
+        <v>1923782.677456686</v>
       </c>
     </row>
   </sheetData>
@@ -10502,28 +10502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4685.635230023348</v>
+        <v>5134.589988309556</v>
       </c>
       <c r="AB2" t="n">
-        <v>6411.092837355402</v>
+        <v>7025.372544128692</v>
       </c>
       <c r="AC2" t="n">
-        <v>5799.227134983272</v>
+        <v>6354.880848689078</v>
       </c>
       <c r="AD2" t="n">
-        <v>4685635.230023348</v>
+        <v>5134589.988309557</v>
       </c>
       <c r="AE2" t="n">
-        <v>6411092.837355401</v>
+        <v>7025372.544128692</v>
       </c>
       <c r="AF2" t="n">
         <v>1.778940850721582e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>91</v>
+        <v>90.06510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5799227.134983271</v>
+        <v>6354880.848689078</v>
       </c>
     </row>
     <row r="3">
@@ -10608,28 +10608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2377.470089263529</v>
+        <v>2670.219487921399</v>
       </c>
       <c r="AB3" t="n">
-        <v>3252.959462708362</v>
+        <v>3653.512105144042</v>
       </c>
       <c r="AC3" t="n">
-        <v>2942.501577144633</v>
+        <v>3304.826037565402</v>
       </c>
       <c r="AD3" t="n">
-        <v>2377470.089263529</v>
+        <v>2670219.487921399</v>
       </c>
       <c r="AE3" t="n">
-        <v>3252959.462708362</v>
+        <v>3653512.105144043</v>
       </c>
       <c r="AF3" t="n">
         <v>2.744461735804698e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.38541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2942501.577144633</v>
+        <v>3304826.037565402</v>
       </c>
     </row>
     <row r="4">
@@ -10714,28 +10714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1953.18890785978</v>
+        <v>2206.921132029348</v>
       </c>
       <c r="AB4" t="n">
-        <v>2672.43923234689</v>
+        <v>3019.606855331573</v>
       </c>
       <c r="AC4" t="n">
-        <v>2417.385382803722</v>
+        <v>2731.419815103452</v>
       </c>
       <c r="AD4" t="n">
-        <v>1953188.90785978</v>
+        <v>2206921.132029349</v>
       </c>
       <c r="AE4" t="n">
-        <v>2672439.23234689</v>
+        <v>3019606.855331573</v>
       </c>
       <c r="AF4" t="n">
         <v>3.113638724748025e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.46484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>2417385.382803722</v>
+        <v>2731419.815103453</v>
       </c>
     </row>
     <row r="5">
@@ -10820,28 +10820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1765.932385229275</v>
+        <v>2009.867609003289</v>
       </c>
       <c r="AB5" t="n">
-        <v>2416.226596909099</v>
+        <v>2749.989531739258</v>
       </c>
       <c r="AC5" t="n">
-        <v>2185.625321695422</v>
+        <v>2487.534390464612</v>
       </c>
       <c r="AD5" t="n">
-        <v>1765932.385229275</v>
+        <v>2009867.609003289</v>
       </c>
       <c r="AE5" t="n">
-        <v>2416226.596909099</v>
+        <v>2749989.531739258</v>
       </c>
       <c r="AF5" t="n">
         <v>3.309794764873247e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.41145833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2185625.321695422</v>
+        <v>2487534.390464611</v>
       </c>
     </row>
     <row r="6">
@@ -10926,28 +10926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1650.604469888754</v>
+        <v>1884.878343912482</v>
       </c>
       <c r="AB6" t="n">
-        <v>2258.42985523166</v>
+        <v>2578.973705104808</v>
       </c>
       <c r="AC6" t="n">
-        <v>2042.888479574559</v>
+        <v>2332.840074301933</v>
       </c>
       <c r="AD6" t="n">
-        <v>1650604.469888754</v>
+        <v>1884878.343912482</v>
       </c>
       <c r="AE6" t="n">
-        <v>2258429.85523166</v>
+        <v>2578973.705104808</v>
       </c>
       <c r="AF6" t="n">
         <v>3.430392581261401e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.71223958333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2042888.479574559</v>
+        <v>2332840.074301933</v>
       </c>
     </row>
     <row r="7">
@@ -11032,28 +11032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1569.301205713285</v>
+        <v>1803.540914318232</v>
       </c>
       <c r="AB7" t="n">
-        <v>2147.187142339916</v>
+        <v>2467.684245579816</v>
       </c>
       <c r="AC7" t="n">
-        <v>1942.262615071075</v>
+        <v>2232.171924598269</v>
       </c>
       <c r="AD7" t="n">
-        <v>1569301.205713285</v>
+        <v>1803540.914318232</v>
       </c>
       <c r="AE7" t="n">
-        <v>2147187.142339916</v>
+        <v>2467684.245579815</v>
       </c>
       <c r="AF7" t="n">
         <v>3.516041642696253e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.57291666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1942262.615071075</v>
+        <v>2232171.924598269</v>
       </c>
     </row>
     <row r="8">
@@ -11138,28 +11138,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1487.091833181189</v>
+        <v>1711.602872228146</v>
       </c>
       <c r="AB8" t="n">
-        <v>2034.704652019953</v>
+        <v>2341.890560372001</v>
       </c>
       <c r="AC8" t="n">
-        <v>1840.515295757084</v>
+        <v>2118.383812154142</v>
       </c>
       <c r="AD8" t="n">
-        <v>1487091.833181189</v>
+        <v>1711602.872228146</v>
       </c>
       <c r="AE8" t="n">
-        <v>2034704.652019953</v>
+        <v>2341890.560372001</v>
       </c>
       <c r="AF8" t="n">
         <v>3.598491170226929e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.52473958333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1840515.295757084</v>
+        <v>2118383.812154142</v>
       </c>
     </row>
     <row r="9">
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1450.098104955779</v>
+        <v>1664.813154637041</v>
       </c>
       <c r="AB9" t="n">
-        <v>1984.088201013843</v>
+        <v>2277.870804547197</v>
       </c>
       <c r="AC9" t="n">
-        <v>1794.729607794361</v>
+        <v>2060.474011972966</v>
       </c>
       <c r="AD9" t="n">
-        <v>1450098.104955779</v>
+        <v>1664813.154637041</v>
       </c>
       <c r="AE9" t="n">
-        <v>1984088.201013843</v>
+        <v>2277870.804547197</v>
       </c>
       <c r="AF9" t="n">
         <v>3.623841323467704e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.21875</v>
       </c>
       <c r="AH9" t="n">
-        <v>1794729.607794361</v>
+        <v>2060474.011972966</v>
       </c>
     </row>
     <row r="10">
@@ -11350,28 +11350,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1433.709212779979</v>
+        <v>1648.42426246124</v>
       </c>
       <c r="AB10" t="n">
-        <v>1961.664195712018</v>
+        <v>2255.446799245372</v>
       </c>
       <c r="AC10" t="n">
-        <v>1774.445718086253</v>
+        <v>2040.190122264858</v>
       </c>
       <c r="AD10" t="n">
-        <v>1433709.212779979</v>
+        <v>1648424.26246124</v>
       </c>
       <c r="AE10" t="n">
-        <v>1961664.195712018</v>
+        <v>2255446.799245372</v>
       </c>
       <c r="AF10" t="n">
         <v>3.639346757003324e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.02994791666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>1774445.718086253</v>
+        <v>2040190.122264858</v>
       </c>
     </row>
     <row r="11">
@@ -11456,28 +11456,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1438.032383227587</v>
+        <v>1652.747432908849</v>
       </c>
       <c r="AB11" t="n">
-        <v>1967.579348243255</v>
+        <v>2261.36195177661</v>
       </c>
       <c r="AC11" t="n">
-        <v>1779.796336761878</v>
+        <v>2045.540740940483</v>
       </c>
       <c r="AD11" t="n">
-        <v>1438032.383227587</v>
+        <v>1652747.432908849</v>
       </c>
       <c r="AE11" t="n">
-        <v>1967579.348243255</v>
+        <v>2261361.95177661</v>
       </c>
       <c r="AF11" t="n">
         <v>3.638362285032809e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>45</v>
+        <v>44.04296875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1779796.336761878</v>
+        <v>2045540.740940483</v>
       </c>
     </row>
   </sheetData>
@@ -11753,28 +11753,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2331.04721697506</v>
+        <v>2654.615948351724</v>
       </c>
       <c r="AB2" t="n">
-        <v>3189.441640810693</v>
+        <v>3632.16265392523</v>
       </c>
       <c r="AC2" t="n">
-        <v>2885.045807021056</v>
+        <v>3285.514148006771</v>
       </c>
       <c r="AD2" t="n">
-        <v>2331047.21697506</v>
+        <v>2654615.948351724</v>
       </c>
       <c r="AE2" t="n">
-        <v>3189441.640810693</v>
+        <v>3632162.65392523</v>
       </c>
       <c r="AF2" t="n">
         <v>3.082952198767245e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2885045.807021056</v>
+        <v>3285514.148006771</v>
       </c>
     </row>
     <row r="3">
@@ -11859,28 +11859,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1540.346333553402</v>
+        <v>1778.272563475849</v>
       </c>
       <c r="AB3" t="n">
-        <v>2107.569808851957</v>
+        <v>2433.110973196303</v>
       </c>
       <c r="AC3" t="n">
-        <v>1906.42630428793</v>
+        <v>2200.898276807146</v>
       </c>
       <c r="AD3" t="n">
-        <v>1540346.333553402</v>
+        <v>1778272.563475849</v>
       </c>
       <c r="AE3" t="n">
-        <v>2107569.808851957</v>
+        <v>2433110.973196303</v>
       </c>
       <c r="AF3" t="n">
         <v>3.990839893448006e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.05208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1906426.30428793</v>
+        <v>2200898.276807146</v>
       </c>
     </row>
     <row r="4">
@@ -11965,28 +11965,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1326.428089092886</v>
+        <v>1554.766246188566</v>
       </c>
       <c r="AB4" t="n">
-        <v>1814.877429374194</v>
+        <v>2127.299769481036</v>
       </c>
       <c r="AC4" t="n">
-        <v>1641.66807471119</v>
+        <v>1924.273265165744</v>
       </c>
       <c r="AD4" t="n">
-        <v>1326428.089092887</v>
+        <v>1554766.246188566</v>
       </c>
       <c r="AE4" t="n">
-        <v>1814877.429374194</v>
+        <v>2127299.769481036</v>
       </c>
       <c r="AF4" t="n">
         <v>4.315764891307731e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.2890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1641668.07471119</v>
+        <v>1924273.265165744</v>
       </c>
     </row>
     <row r="5">
@@ -12071,28 +12071,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1228.397310650687</v>
+        <v>1456.76862213529</v>
       </c>
       <c r="AB5" t="n">
-        <v>1680.747393496861</v>
+        <v>1993.215096901298</v>
       </c>
       <c r="AC5" t="n">
-        <v>1520.339221205302</v>
+        <v>1802.985445547996</v>
       </c>
       <c r="AD5" t="n">
-        <v>1228397.310650687</v>
+        <v>1456768.62213529</v>
       </c>
       <c r="AE5" t="n">
-        <v>1680747.393496861</v>
+        <v>1993215.096901298</v>
       </c>
       <c r="AF5" t="n">
         <v>4.446778086856459e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1520339.221205303</v>
+        <v>1802985.445547996</v>
       </c>
     </row>
     <row r="6">
@@ -12177,28 +12177,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1231.545707785191</v>
+        <v>1459.917019269794</v>
       </c>
       <c r="AB6" t="n">
-        <v>1685.055169353768</v>
+        <v>1997.522872758204</v>
       </c>
       <c r="AC6" t="n">
-        <v>1524.235868980427</v>
+        <v>1806.88209332312</v>
       </c>
       <c r="AD6" t="n">
-        <v>1231545.707785191</v>
+        <v>1459917.019269794</v>
       </c>
       <c r="AE6" t="n">
-        <v>1685055.169353768</v>
+        <v>1997522.872758204</v>
       </c>
       <c r="AF6" t="n">
         <v>4.449846311576569e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.88932291666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1524235.868980427</v>
+        <v>1806882.09332312</v>
       </c>
     </row>
   </sheetData>
@@ -12474,28 +12474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1740.469271704409</v>
+        <v>2022.327456699767</v>
       </c>
       <c r="AB2" t="n">
-        <v>2381.386841631092</v>
+        <v>2767.037645047264</v>
       </c>
       <c r="AC2" t="n">
-        <v>2154.110623763244</v>
+        <v>2502.955455765678</v>
       </c>
       <c r="AD2" t="n">
-        <v>1740469.27170441</v>
+        <v>2022327.456699767</v>
       </c>
       <c r="AE2" t="n">
-        <v>2381386.841631092</v>
+        <v>2767037.645047264</v>
       </c>
       <c r="AF2" t="n">
         <v>3.950000943806341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>2154110.623763244</v>
+        <v>2502955.455765679</v>
       </c>
     </row>
     <row r="3">
@@ -12580,28 +12580,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1235.831784182252</v>
+        <v>1461.35269980329</v>
       </c>
       <c r="AB3" t="n">
-        <v>1690.919568168573</v>
+        <v>1999.48723420189</v>
       </c>
       <c r="AC3" t="n">
-        <v>1529.540577803083</v>
+        <v>1808.658978867619</v>
       </c>
       <c r="AD3" t="n">
-        <v>1235831.784182252</v>
+        <v>1461352.69980329</v>
       </c>
       <c r="AE3" t="n">
-        <v>1690919.568168573</v>
+        <v>1999487.234201889</v>
       </c>
       <c r="AF3" t="n">
         <v>4.817312580116407e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.1484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1529540.577803083</v>
+        <v>1808658.978867619</v>
       </c>
     </row>
     <row r="4">
@@ -12686,28 +12686,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1154.695832812134</v>
+        <v>1380.249902822096</v>
       </c>
       <c r="AB4" t="n">
-        <v>1579.90578003843</v>
+        <v>1888.51880936934</v>
       </c>
       <c r="AC4" t="n">
-        <v>1429.12178980325</v>
+        <v>1708.281224755926</v>
       </c>
       <c r="AD4" t="n">
-        <v>1154695.832812134</v>
+        <v>1380249.902822096</v>
       </c>
       <c r="AE4" t="n">
-        <v>1579905.78003843</v>
+        <v>1888518.80936934</v>
       </c>
       <c r="AF4" t="n">
         <v>4.962097105083694e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.77473958333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1429121.78980325</v>
+        <v>1708281.224755926</v>
       </c>
     </row>
   </sheetData>
@@ -22812,28 +22812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1378.544548663299</v>
+        <v>1639.009140101221</v>
       </c>
       <c r="AB2" t="n">
-        <v>1886.185468574358</v>
+        <v>2242.564613466511</v>
       </c>
       <c r="AC2" t="n">
-        <v>1706.170574731552</v>
+        <v>2028.537394216469</v>
       </c>
       <c r="AD2" t="n">
-        <v>1378544.548663299</v>
+        <v>1639009.140101221</v>
       </c>
       <c r="AE2" t="n">
-        <v>1886185.468574358</v>
+        <v>2242564.613466511</v>
       </c>
       <c r="AF2" t="n">
         <v>4.81842193457347e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.94270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1706170.574731552</v>
+        <v>2028537.394216469</v>
       </c>
     </row>
     <row r="3">
@@ -22918,28 +22918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1105.826132030559</v>
+        <v>1338.372821215524</v>
       </c>
       <c r="AB3" t="n">
-        <v>1513.040099450041</v>
+        <v>1831.220738828777</v>
       </c>
       <c r="AC3" t="n">
-        <v>1368.637675923645</v>
+        <v>1656.451601649407</v>
       </c>
       <c r="AD3" t="n">
-        <v>1105826.132030559</v>
+        <v>1338372.821215524</v>
       </c>
       <c r="AE3" t="n">
-        <v>1513040.099450041</v>
+        <v>1831220.738828777</v>
       </c>
       <c r="AF3" t="n">
         <v>5.432772690258232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1368637.675923645</v>
+        <v>1656451.601649407</v>
       </c>
     </row>
   </sheetData>
@@ -23215,28 +23215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1055.718726050483</v>
+        <v>1301.828712422023</v>
       </c>
       <c r="AB2" t="n">
-        <v>1444.480936005365</v>
+        <v>1781.219476965213</v>
       </c>
       <c r="AC2" t="n">
-        <v>1306.621702814739</v>
+        <v>1611.222390040889</v>
       </c>
       <c r="AD2" t="n">
-        <v>1055718.726050483</v>
+        <v>1301828.712422023</v>
       </c>
       <c r="AE2" t="n">
-        <v>1444480.936005365</v>
+        <v>1781219.476965213</v>
       </c>
       <c r="AF2" t="n">
         <v>6.499764644495724e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.90755208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1306621.702814739</v>
+        <v>1611222.390040889</v>
       </c>
     </row>
   </sheetData>
@@ -23512,28 +23512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3038.963674161303</v>
+        <v>3404.437715209214</v>
       </c>
       <c r="AB2" t="n">
-        <v>4158.044168602878</v>
+        <v>4658.101875141405</v>
       </c>
       <c r="AC2" t="n">
-        <v>3761.206269002906</v>
+        <v>4213.539169864775</v>
       </c>
       <c r="AD2" t="n">
-        <v>3038963.674161303</v>
+        <v>3404437.715209214</v>
       </c>
       <c r="AE2" t="n">
-        <v>4158044.168602878</v>
+        <v>4658101.875141405</v>
       </c>
       <c r="AF2" t="n">
         <v>2.483162431450039e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.98828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>3761206.269002906</v>
+        <v>4213539.169864776</v>
       </c>
     </row>
     <row r="3">
@@ -23618,28 +23618,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1828.208525050628</v>
+        <v>2097.478214176367</v>
       </c>
       <c r="AB3" t="n">
-        <v>2501.435558842059</v>
+        <v>2869.862226844177</v>
       </c>
       <c r="AC3" t="n">
-        <v>2262.702059893029</v>
+        <v>2595.966603791102</v>
       </c>
       <c r="AD3" t="n">
-        <v>1828208.525050628</v>
+        <v>2097478.214176367</v>
       </c>
       <c r="AE3" t="n">
-        <v>2501435.558842059</v>
+        <v>2869862.226844177</v>
       </c>
       <c r="AF3" t="n">
         <v>3.421586260644892e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.96875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2262702.059893029</v>
+        <v>2595966.603791102</v>
       </c>
     </row>
     <row r="4">
@@ -23724,28 +23724,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1564.479564087114</v>
+        <v>1795.302688892622</v>
       </c>
       <c r="AB4" t="n">
-        <v>2140.589959551171</v>
+        <v>2456.41234210764</v>
       </c>
       <c r="AC4" t="n">
-        <v>1936.295058148485</v>
+        <v>2221.975795773262</v>
       </c>
       <c r="AD4" t="n">
-        <v>1564479.564087114</v>
+        <v>1795302.688892622</v>
       </c>
       <c r="AE4" t="n">
-        <v>2140589.959551171</v>
+        <v>2456412.34210764</v>
       </c>
       <c r="AF4" t="n">
         <v>3.762603522811516e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.17057291666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1936295.058148485</v>
+        <v>2221975.795773262</v>
       </c>
     </row>
     <row r="5">
@@ -23830,28 +23830,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1416.975881769673</v>
+        <v>1647.797995545325</v>
       </c>
       <c r="AB5" t="n">
-        <v>1938.768914001256</v>
+        <v>2254.58991322207</v>
       </c>
       <c r="AC5" t="n">
-        <v>1753.735529928236</v>
+        <v>2039.415016240972</v>
       </c>
       <c r="AD5" t="n">
-        <v>1416975.881769673</v>
+        <v>1647797.995545324</v>
       </c>
       <c r="AE5" t="n">
-        <v>1938768.914001256</v>
+        <v>2254589.91322207</v>
       </c>
       <c r="AF5" t="n">
         <v>3.944943365031223e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.94401041666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1753735.529928236</v>
+        <v>2039415.016240972</v>
       </c>
     </row>
     <row r="6">
@@ -23936,28 +23936,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1323.029668525512</v>
+        <v>1544.265512527727</v>
       </c>
       <c r="AB6" t="n">
-        <v>1810.227560426178</v>
+        <v>2112.932202426602</v>
       </c>
       <c r="AC6" t="n">
-        <v>1637.461982729441</v>
+        <v>1911.276918545979</v>
       </c>
       <c r="AD6" t="n">
-        <v>1323029.668525512</v>
+        <v>1544265.512527727</v>
       </c>
       <c r="AE6" t="n">
-        <v>1810227.560426178</v>
+        <v>2112932.202426602</v>
       </c>
       <c r="AF6" t="n">
         <v>4.061585187764134e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.62239583333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1637461.982729441</v>
+        <v>1911276.918545979</v>
       </c>
     </row>
     <row r="7">
@@ -24042,28 +24042,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1307.791395056306</v>
+        <v>1528.925753832036</v>
       </c>
       <c r="AB7" t="n">
-        <v>1789.377882400431</v>
+        <v>2091.943667836767</v>
       </c>
       <c r="AC7" t="n">
-        <v>1618.602168711765</v>
+        <v>1892.291500239803</v>
       </c>
       <c r="AD7" t="n">
-        <v>1307791.395056306</v>
+        <v>1528925.753832036</v>
       </c>
       <c r="AE7" t="n">
-        <v>1789377.882400431</v>
+        <v>2091943.667836766</v>
       </c>
       <c r="AF7" t="n">
         <v>4.077174548320322e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>45</v>
+        <v>44.453125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1618602.168711765</v>
+        <v>1892291.500239803</v>
       </c>
     </row>
     <row r="8">
@@ -24148,28 +24148,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1312.472163445202</v>
+        <v>1533.606522220932</v>
       </c>
       <c r="AB8" t="n">
-        <v>1795.782316211046</v>
+        <v>2098.348101647381</v>
       </c>
       <c r="AC8" t="n">
-        <v>1624.395372348174</v>
+        <v>1898.084703876211</v>
       </c>
       <c r="AD8" t="n">
-        <v>1312472.163445202</v>
+        <v>1533606.522220931</v>
       </c>
       <c r="AE8" t="n">
-        <v>1795782.316211046</v>
+        <v>2098348.101647381</v>
       </c>
       <c r="AF8" t="n">
         <v>4.076617785443315e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.45963541666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1624395.372348174</v>
+        <v>1898084.703876211</v>
       </c>
     </row>
   </sheetData>
@@ -24445,28 +24445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4297.803501767657</v>
+        <v>4726.066318012628</v>
       </c>
       <c r="AB2" t="n">
-        <v>5880.444356827644</v>
+        <v>6466.412435636053</v>
       </c>
       <c r="AC2" t="n">
-        <v>5319.223000667281</v>
+        <v>5849.267108445559</v>
       </c>
       <c r="AD2" t="n">
-        <v>4297803.501767657</v>
+        <v>4726066.318012628</v>
       </c>
       <c r="AE2" t="n">
-        <v>5880444.356827644</v>
+        <v>6466412.435636054</v>
       </c>
       <c r="AF2" t="n">
         <v>1.898658153694911e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>87</v>
+        <v>86.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>5319223.000667281</v>
+        <v>5849267.108445559</v>
       </c>
     </row>
     <row r="3">
@@ -24551,28 +24551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2264.7078129498</v>
+        <v>2546.959862719153</v>
       </c>
       <c r="AB3" t="n">
-        <v>3098.673141535377</v>
+        <v>3484.86284811144</v>
       </c>
       <c r="AC3" t="n">
-        <v>2802.940125922192</v>
+        <v>3152.272428923278</v>
       </c>
       <c r="AD3" t="n">
-        <v>2264707.8129498</v>
+        <v>2546959.862719153</v>
       </c>
       <c r="AE3" t="n">
-        <v>3098673.141535377</v>
+        <v>3484862.84811144</v>
       </c>
       <c r="AF3" t="n">
         <v>2.860061368244719e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.25911458333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2802940.125922192</v>
+        <v>3152272.428923278</v>
       </c>
     </row>
     <row r="4">
@@ -24657,28 +24657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1869.069908269006</v>
+        <v>2122.180291467183</v>
       </c>
       <c r="AB4" t="n">
-        <v>2557.343906038445</v>
+        <v>2903.660698772211</v>
       </c>
       <c r="AC4" t="n">
-        <v>2313.274592900851</v>
+        <v>2626.539396994777</v>
       </c>
       <c r="AD4" t="n">
-        <v>1869069.908269007</v>
+        <v>2122180.291467183</v>
       </c>
       <c r="AE4" t="n">
-        <v>2557343.906038445</v>
+        <v>2903660.698772211</v>
       </c>
       <c r="AF4" t="n">
         <v>3.226561756418207e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.75520833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2313274.592900851</v>
+        <v>2626539.396994777</v>
       </c>
     </row>
     <row r="5">
@@ -24763,28 +24763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1694.116654491721</v>
+        <v>1937.456543478158</v>
       </c>
       <c r="AB5" t="n">
-        <v>2317.965145827544</v>
+        <v>2650.913517337022</v>
       </c>
       <c r="AC5" t="n">
-        <v>2096.741805594278</v>
+        <v>2397.914051822866</v>
       </c>
       <c r="AD5" t="n">
-        <v>1694116.654491721</v>
+        <v>1937456.543478158</v>
       </c>
       <c r="AE5" t="n">
-        <v>2317965.145827544</v>
+        <v>2650913.517337022</v>
       </c>
       <c r="AF5" t="n">
         <v>3.415723247088395e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>48</v>
+        <v>47.94270833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2096741.805594278</v>
+        <v>2397914.051822865</v>
       </c>
     </row>
     <row r="6">
@@ -24869,28 +24869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1590.249557984972</v>
+        <v>1823.785798370744</v>
       </c>
       <c r="AB6" t="n">
-        <v>2175.849602094115</v>
+        <v>2495.384189081712</v>
       </c>
       <c r="AC6" t="n">
-        <v>1968.189569894348</v>
+        <v>2257.228224369459</v>
       </c>
       <c r="AD6" t="n">
-        <v>1590249.557984972</v>
+        <v>1823785.798370745</v>
       </c>
       <c r="AE6" t="n">
-        <v>2175849.602094115</v>
+        <v>2495384.189081712</v>
       </c>
       <c r="AF6" t="n">
         <v>3.540489336679369e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>47</v>
+        <v>46.25651041666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1968189.569894348</v>
+        <v>2257228.224369459</v>
       </c>
     </row>
     <row r="7">
@@ -24975,28 +24975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1508.945755574404</v>
+        <v>1732.779832585997</v>
       </c>
       <c r="AB7" t="n">
-        <v>2064.606152765361</v>
+        <v>2370.865811795168</v>
       </c>
       <c r="AC7" t="n">
-        <v>1867.56303923837</v>
+        <v>2144.593706248502</v>
       </c>
       <c r="AD7" t="n">
-        <v>1508945.755574404</v>
+        <v>1732779.832585997</v>
       </c>
       <c r="AE7" t="n">
-        <v>2064606.152765362</v>
+        <v>2370865.811795168</v>
       </c>
       <c r="AF7" t="n">
         <v>3.623247488847576e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>46</v>
+        <v>45.1953125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1867563.03923837</v>
+        <v>2144593.706248502</v>
       </c>
     </row>
     <row r="8">
@@ -25081,28 +25081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1451.392870952522</v>
+        <v>1675.294267771819</v>
       </c>
       <c r="AB8" t="n">
-        <v>1985.85975697163</v>
+        <v>2292.211525932278</v>
       </c>
       <c r="AC8" t="n">
-        <v>1796.332088937932</v>
+        <v>2073.446075036383</v>
       </c>
       <c r="AD8" t="n">
-        <v>1451392.870952522</v>
+        <v>1675294.267771819</v>
       </c>
       <c r="AE8" t="n">
-        <v>1985859.75697163</v>
+        <v>2292211.525932278</v>
       </c>
       <c r="AF8" t="n">
         <v>3.667770871625e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>45</v>
+        <v>44.6484375</v>
       </c>
       <c r="AH8" t="n">
-        <v>1796332.088937931</v>
+        <v>2073446.075036383</v>
       </c>
     </row>
     <row r="9">
@@ -25187,28 +25187,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1405.9029949208</v>
+        <v>1620.034908558214</v>
       </c>
       <c r="AB9" t="n">
-        <v>1923.618501713335</v>
+        <v>2216.60323278535</v>
       </c>
       <c r="AC9" t="n">
-        <v>1740.031051725338</v>
+        <v>2005.053731270493</v>
       </c>
       <c r="AD9" t="n">
-        <v>1405902.9949208</v>
+        <v>1620034.908558214</v>
       </c>
       <c r="AE9" t="n">
-        <v>1923618.501713336</v>
+        <v>2216603.232785351</v>
       </c>
       <c r="AF9" t="n">
         <v>3.715564333363479e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>45</v>
+        <v>44.07552083333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>1740031.051725338</v>
+        <v>2005053.731270493</v>
       </c>
     </row>
     <row r="10">
@@ -25293,28 +25293,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1410.653084673959</v>
+        <v>1624.784998311372</v>
       </c>
       <c r="AB10" t="n">
-        <v>1930.117784072778</v>
+        <v>2223.102515144793</v>
       </c>
       <c r="AC10" t="n">
-        <v>1745.910051698195</v>
+        <v>2010.932731243349</v>
       </c>
       <c r="AD10" t="n">
-        <v>1410653.084673959</v>
+        <v>1624784.998311372</v>
       </c>
       <c r="AE10" t="n">
-        <v>1930117.784072778</v>
+        <v>2223102.515144792</v>
       </c>
       <c r="AF10" t="n">
         <v>3.714055066150685e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>45</v>
+        <v>44.09505208333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1745910.051698195</v>
+        <v>2010932.731243349</v>
       </c>
     </row>
   </sheetData>
@@ -25590,28 +25590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1079.286627775797</v>
+        <v>1350.006892443865</v>
       </c>
       <c r="AB2" t="n">
-        <v>1476.727578888382</v>
+        <v>1847.138988342391</v>
       </c>
       <c r="AC2" t="n">
-        <v>1335.790771359448</v>
+        <v>1670.850635770845</v>
       </c>
       <c r="AD2" t="n">
-        <v>1079286.627775797</v>
+        <v>1350006.892443865</v>
       </c>
       <c r="AE2" t="n">
-        <v>1476727.578888382</v>
+        <v>1847138.988342391</v>
       </c>
       <c r="AF2" t="n">
         <v>6.919301301573488e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1335790.771359448</v>
+        <v>1670850.635770845</v>
       </c>
     </row>
   </sheetData>
@@ -25887,28 +25887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1925.644605080756</v>
+        <v>2218.312617919148</v>
       </c>
       <c r="AB2" t="n">
-        <v>2634.751902115754</v>
+        <v>3035.193188882886</v>
       </c>
       <c r="AC2" t="n">
-        <v>2383.294878475346</v>
+        <v>2745.518610856185</v>
       </c>
       <c r="AD2" t="n">
-        <v>1925644.605080757</v>
+        <v>2218312.617919148</v>
       </c>
       <c r="AE2" t="n">
-        <v>2634751.902115754</v>
+        <v>3035193.188882886</v>
       </c>
       <c r="AF2" t="n">
         <v>3.618012169073472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.86328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2383294.878475346</v>
+        <v>2745518.610856185</v>
       </c>
     </row>
     <row r="3">
@@ -25993,28 +25993,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1340.622523211576</v>
+        <v>1567.189792056221</v>
       </c>
       <c r="AB3" t="n">
-        <v>1834.298880349623</v>
+        <v>2144.298213025323</v>
       </c>
       <c r="AC3" t="n">
-        <v>1659.235969663702</v>
+        <v>1939.649401115629</v>
       </c>
       <c r="AD3" t="n">
-        <v>1340622.523211576</v>
+        <v>1567189.792056221</v>
       </c>
       <c r="AE3" t="n">
-        <v>1834298.880349623</v>
+        <v>2144298.213025323</v>
       </c>
       <c r="AF3" t="n">
         <v>4.499310029843646e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.13802083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1659235.969663701</v>
+        <v>1939649.401115629</v>
       </c>
     </row>
     <row r="4">
@@ -26099,28 +26099,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1184.265385084555</v>
+        <v>1401.355380649904</v>
       </c>
       <c r="AB4" t="n">
-        <v>1620.364145974134</v>
+        <v>1917.396255241315</v>
       </c>
       <c r="AC4" t="n">
-        <v>1465.718866077724</v>
+        <v>1734.402647723629</v>
       </c>
       <c r="AD4" t="n">
-        <v>1184265.385084555</v>
+        <v>1401355.380649904</v>
       </c>
       <c r="AE4" t="n">
-        <v>1620364.145974134</v>
+        <v>1917396.255241315</v>
       </c>
       <c r="AF4" t="n">
         <v>4.764797267629451e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.45572916666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1465718.866077724</v>
+        <v>1734402.647723629</v>
       </c>
     </row>
     <row r="5">
@@ -26205,28 +26205,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1186.999523903866</v>
+        <v>1404.089519469215</v>
       </c>
       <c r="AB5" t="n">
-        <v>1624.105115328407</v>
+        <v>1921.137224595588</v>
       </c>
       <c r="AC5" t="n">
-        <v>1469.102802567309</v>
+        <v>1737.786584213213</v>
       </c>
       <c r="AD5" t="n">
-        <v>1186999.523903867</v>
+        <v>1404089.519469216</v>
       </c>
       <c r="AE5" t="n">
-        <v>1624105.115328407</v>
+        <v>1921137.224595588</v>
       </c>
       <c r="AF5" t="n">
         <v>4.769454938467798e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.41666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1469102.802567309</v>
+        <v>1737786.584213214</v>
       </c>
     </row>
   </sheetData>
@@ -26502,28 +26502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2555.896269926695</v>
+        <v>2890.149632081925</v>
       </c>
       <c r="AB2" t="n">
-        <v>3497.09003469926</v>
+        <v>3954.430231017675</v>
       </c>
       <c r="AC2" t="n">
-        <v>3163.33266998412</v>
+        <v>3577.024959846885</v>
       </c>
       <c r="AD2" t="n">
-        <v>2555896.269926695</v>
+        <v>2890149.632081925</v>
       </c>
       <c r="AE2" t="n">
-        <v>3497090.03469926</v>
+        <v>3954430.231017675</v>
       </c>
       <c r="AF2" t="n">
         <v>2.861387226450346e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.40234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>3163332.66998412</v>
+        <v>3577024.959846885</v>
       </c>
     </row>
     <row r="3">
@@ -26608,28 +26608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1628.298803635531</v>
+        <v>1886.179902005488</v>
       </c>
       <c r="AB3" t="n">
-        <v>2227.910258607457</v>
+        <v>2580.75455430835</v>
       </c>
       <c r="AC3" t="n">
-        <v>2015.281630417648</v>
+        <v>2334.450961756926</v>
       </c>
       <c r="AD3" t="n">
-        <v>1628298.803635531</v>
+        <v>1886179.902005488</v>
       </c>
       <c r="AE3" t="n">
-        <v>2227910.258607457</v>
+        <v>2580754.55430835</v>
       </c>
       <c r="AF3" t="n">
         <v>3.782399017218969e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.98958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2015281.630417648</v>
+        <v>2334450.961756926</v>
       </c>
     </row>
     <row r="4">
@@ -26714,28 +26714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1398.988564922526</v>
+        <v>1637.759767394239</v>
       </c>
       <c r="AB4" t="n">
-        <v>1914.157873546575</v>
+        <v>2240.855166610384</v>
       </c>
       <c r="AC4" t="n">
-        <v>1731.473332632738</v>
+        <v>2026.991094569067</v>
       </c>
       <c r="AD4" t="n">
-        <v>1398988.564922526</v>
+        <v>1637759.767394239</v>
       </c>
       <c r="AE4" t="n">
-        <v>1914157.873546575</v>
+        <v>2240855.166610383</v>
       </c>
       <c r="AF4" t="n">
         <v>4.114780885743381e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1731473.332632738</v>
+        <v>2026991.094569067</v>
       </c>
     </row>
     <row r="5">
@@ -26820,28 +26820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1272.353362683181</v>
+        <v>1501.569617205771</v>
       </c>
       <c r="AB5" t="n">
-        <v>1740.890003091873</v>
+        <v>2054.513794837139</v>
       </c>
       <c r="AC5" t="n">
-        <v>1574.741904551249</v>
+        <v>1858.433881786104</v>
       </c>
       <c r="AD5" t="n">
-        <v>1272353.362683181</v>
+        <v>1501569.617205771</v>
       </c>
       <c r="AE5" t="n">
-        <v>1740890.003091873</v>
+        <v>2054513.79483714</v>
       </c>
       <c r="AF5" t="n">
         <v>4.286600389971686e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.99348958333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1574741.904551249</v>
+        <v>1858433.881786104</v>
       </c>
     </row>
     <row r="6">
@@ -26926,28 +26926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1252.97816096052</v>
+        <v>1472.70779837155</v>
       </c>
       <c r="AB6" t="n">
-        <v>1714.379997321356</v>
+        <v>2015.023781014576</v>
       </c>
       <c r="AC6" t="n">
-        <v>1550.761976524443</v>
+        <v>1822.712739458183</v>
       </c>
       <c r="AD6" t="n">
-        <v>1252978.16096052</v>
+        <v>1472707.79837155</v>
       </c>
       <c r="AE6" t="n">
-        <v>1714379.997321356</v>
+        <v>2015023.781014576</v>
       </c>
       <c r="AF6" t="n">
         <v>4.3177056450475e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>45</v>
+        <v>44.66796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>1550761.976524443</v>
+        <v>1822712.739458183</v>
       </c>
     </row>
   </sheetData>
